--- a/examples/iepd-requirements-example-invalid-formatting.xlsx
+++ b/examples/iepd-requirements-example-invalid-formatting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10548" yWindow="1620" windowWidth="19440" windowHeight="11676" tabRatio="890" activeTab="9"/>
+    <workbookView xWindow="10548" yWindow="1620" windowWidth="19440" windowHeight="11676" tabRatio="890" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <definedName name="CODES_NamespaceStyle">'Field Descriptions'!$B$132:$B$141</definedName>
     <definedName name="CODES_NDRArtifact">'Field Descriptions'!$B$148:$B$149</definedName>
     <definedName name="CODES_NDRVersion">'Field Descriptions'!$B$145:$B$146</definedName>
+    <definedName name="CONTENT_STYLES">'Field Descriptions'!$B$51:$B$59</definedName>
     <definedName name="Facet_Mapping_Code">#REF!</definedName>
     <definedName name="Facet_Mapping_Description">#REF!</definedName>
     <definedName name="Facet_Mapping_Notes">#REF!</definedName>
@@ -122,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="576">
   <si>
     <t>Definition</t>
   </si>
@@ -888,31 +889,10 @@
     <t>Abstract elements serve as substitution group heads for other elements.</t>
   </si>
   <si>
-    <t>Object</t>
-  </si>
-  <si>
     <t>Adapter</t>
   </si>
   <si>
-    <t>Association</t>
-  </si>
-  <si>
-    <t>Augmentation</t>
-  </si>
-  <si>
-    <t>Metadata</t>
-  </si>
-  <si>
     <t>CSC</t>
-  </si>
-  <si>
-    <t>Simple</t>
-  </si>
-  <si>
-    <t>Simple-List</t>
-  </si>
-  <si>
-    <t>Simple-Union</t>
   </si>
   <si>
     <t>A simple type (value only).  Typically used to define a set of codes.</t>
@@ -2337,8 +2317,60 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Style </t>
+    <t>Codes... Tab</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Type Name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Type Name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>UPDATED PROPERTY COLUMN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Property Name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Substitution Group </t>
     </r>
     <r>
       <rPr>
@@ -2351,6 +2383,566 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Is Abstract?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>default=FALSE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Property NS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Min </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Max </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Property NS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Property Name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">URI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">URI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NDR Target </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">File Name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Relative Path </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Draft Version </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color indexed="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Source</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+NS Prefix</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Term </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Literal </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Term </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Literal </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Definition </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Union Type Name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Member NS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Union Type Name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Member NS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Member Type Name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Member Type</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color indexed="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Source</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Metadata NS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Metadata Type Name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Applies to NS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Applies to Type Name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color indexed="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Target</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Metadata NS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Metadata Type Name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Applies to NS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Applies to Type Name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>no match</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>adapter</t>
+  </si>
+  <si>
+    <t>association</t>
+  </si>
+  <si>
+    <t>augmentation</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>union</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Style </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
     <r>
       <rPr>
         <i/>
@@ -2361,592 +2953,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-default=Object</t>
-    </r>
-  </si>
-  <si>
-    <t>Codes... Tab</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Type Name </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Type Name </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>UPDATED PROPERTY COLUMN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Property Name </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Substitution Group </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Is Abstract?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>default=FALSE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Property NS </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Min </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Max </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Property NS </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Property Name </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">URI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">URI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">NDR Target </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">File Name </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Relative Path </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Draft Version </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Source</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-NS Prefix</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Term </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Literal </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Term </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Literal </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Definition </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Union Type Name </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Member NS </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Union Type Name </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Member NS </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Member Type Name </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>Member Type</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Source</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Metadata NS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Metadata Type Name </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Applies to NS </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Applies to Type Name </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Target</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Metadata NS </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Metadata Type Name </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Applies to NS </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Applies to Type Name </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
+default=object</t>
     </r>
   </si>
 </sst>
@@ -4323,7 +4330,7 @@
     <tableColumn id="8" name="Target_x000a_NS Prefix" dataDxfId="73"/>
     <tableColumn id="9" name="Type Name 2" dataDxfId="72"/>
     <tableColumn id="10" name="Parent / Base Type 2" dataDxfId="71"/>
-    <tableColumn id="12" name="Style 2_x000a_default=Object" dataDxfId="70"/>
+    <tableColumn id="12" name="Style 2_x000a_default=object" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4923,7 +4930,7 @@
         <v>86</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>70</v>
@@ -4931,16 +4938,16 @@
     </row>
     <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -4959,16 +4966,16 @@
     </row>
     <row r="26" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5037,18 +5044,18 @@
     </row>
     <row r="37" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -5065,7 +5072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5085,16 +5092,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>49</v>
@@ -5106,16 +5113,16 @@
         <v>23</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -5271,10 +5278,10 @@
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="37" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -5292,7 +5299,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5308,7 +5315,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -5317,7 +5324,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5374,7 +5381,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="59" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B26" s="59"/>
       <c r="C26" s="59"/>
@@ -5382,64 +5389,64 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="60" t="s">
         <v>202</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C30" s="62" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C31" s="62" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="8" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C33" s="62" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -5495,7 +5502,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -5563,7 +5570,7 @@
         <v>28</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -5576,87 +5583,87 @@
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="45"/>
       <c r="B51" s="56" t="s">
-        <v>145</v>
+        <v>567</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="45"/>
       <c r="B52" s="56" t="s">
-        <v>146</v>
+        <v>568</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="45"/>
       <c r="B53" s="56" t="s">
-        <v>147</v>
+        <v>569</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="45"/>
       <c r="B54" s="56" t="s">
-        <v>148</v>
+        <v>570</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="45"/>
       <c r="B55" s="56" t="s">
-        <v>149</v>
+        <v>571</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="45"/>
       <c r="B56" s="56" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="45"/>
       <c r="B57" s="56" t="s">
-        <v>151</v>
+        <v>572</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="45"/>
       <c r="B58" s="56" t="s">
-        <v>152</v>
+        <v>573</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="45"/>
       <c r="B59" s="56" t="s">
-        <v>153</v>
+        <v>574</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="59" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B60" s="59"/>
       <c r="C60" s="59"/>
@@ -5664,19 +5671,19 @@
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C61" s="62" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C62" s="62" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -5696,7 +5703,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="51" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B66" s="52"/>
       <c r="C66" s="53"/>
@@ -5711,7 +5718,7 @@
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="44"/>
       <c r="B68" s="37" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C68" s="37" t="s">
         <v>15</v>
@@ -5723,7 +5730,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -5741,7 +5748,7 @@
         <v>10</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -5750,7 +5757,7 @@
         <v>66</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -5759,7 +5766,7 @@
         <v>67</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -5788,7 +5795,7 @@
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="44"/>
       <c r="B77" s="37" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C77" s="37" t="s">
         <v>15</v>
@@ -5800,7 +5807,7 @@
         <v>14</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -5818,7 +5825,7 @@
         <v>10</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
@@ -5827,7 +5834,7 @@
         <v>66</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -5836,7 +5843,7 @@
         <v>65</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -5845,16 +5852,16 @@
         <v>67</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="44"/>
       <c r="B84" s="56" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -5863,12 +5870,12 @@
         <v>0</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="59" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
@@ -5876,10 +5883,10 @@
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
       <c r="B87" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C87" s="60" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -5889,7 +5896,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="51" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B91" s="52"/>
       <c r="C91" s="58"/>
@@ -5904,7 +5911,7 @@
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="44"/>
       <c r="B93" s="37" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C93" s="37" t="s">
         <v>15</v>
@@ -5925,7 +5932,7 @@
         <v>69</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -5963,7 +5970,7 @@
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="44"/>
       <c r="B100" s="37" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C100" s="37" t="s">
         <v>15</v>
@@ -6008,114 +6015,114 @@
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="45"/>
       <c r="B105" s="56" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="45"/>
       <c r="B106" s="56" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="45"/>
       <c r="B107" s="56" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="45"/>
       <c r="B108" s="56" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="45"/>
       <c r="B109" s="56" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="45"/>
       <c r="B110" s="56" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="45"/>
       <c r="B111" s="56" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="45"/>
       <c r="B112" s="56" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="45"/>
       <c r="B113" s="56" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="45"/>
       <c r="B114" s="56" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="45"/>
       <c r="B115" s="56" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="45"/>
       <c r="B116" s="56" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="59" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B117" s="59"/>
       <c r="C117" s="59"/>
@@ -6123,10 +6130,10 @@
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="9"/>
       <c r="B118" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C118" s="60" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -6161,7 +6168,7 @@
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="44"/>
       <c r="B124" s="37" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C124" s="37" t="s">
         <v>22</v>
@@ -6173,7 +6180,7 @@
         <v>20</v>
       </c>
       <c r="C125" s="37" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -6182,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="37" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -6211,7 +6218,7 @@
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="45"/>
       <c r="B130" s="37" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C130" s="37" t="s">
         <v>22</v>
@@ -6227,91 +6234,91 @@
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="45"/>
       <c r="B132" s="56" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="45"/>
       <c r="B133" s="56" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="45"/>
       <c r="B134" s="56" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C134" s="37" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="45"/>
       <c r="B135" s="56" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="45"/>
       <c r="B136" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C136" s="37" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="45"/>
       <c r="B137" s="56" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C137" s="37" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="45"/>
       <c r="B138" s="56" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="45"/>
       <c r="B139" s="56" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C139" s="37" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="45"/>
       <c r="B140" s="56" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C140" s="37" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="45"/>
       <c r="B141" s="56" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C141" s="37" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -6320,7 +6327,7 @@
         <v>20</v>
       </c>
       <c r="C142" s="37" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -6329,85 +6336,85 @@
         <v>0</v>
       </c>
       <c r="C143" s="37" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="45"/>
       <c r="B144" s="37" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C144" s="37" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="45"/>
       <c r="B145" s="56" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C145" s="37" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="45"/>
       <c r="B146" s="56" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C146" s="37" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="45"/>
       <c r="B147" s="37" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C147" s="37" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="45"/>
       <c r="B148" s="56" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C148" s="37" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="45"/>
       <c r="B149" s="56" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="45"/>
       <c r="B150" s="37" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="45"/>
       <c r="B151" s="37" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="45"/>
       <c r="B152" s="37" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C152" s="37" t="s">
         <v>21</v>
@@ -6415,7 +6422,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="59" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B153" s="59"/>
       <c r="C153" s="59"/>
@@ -6423,15 +6430,15 @@
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="9"/>
       <c r="B154" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C154" s="61" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="51" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B158" s="52"/>
       <c r="C158" s="53"/>
@@ -6446,19 +6453,19 @@
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="44"/>
       <c r="B160" s="37" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="44"/>
       <c r="B161" s="37" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -6467,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -6496,19 +6503,19 @@
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="45"/>
       <c r="B166" s="37" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="45"/>
       <c r="B167" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C167" s="37" t="s">
         <v>246</v>
-      </c>
-      <c r="C167" s="37" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -6517,12 +6524,12 @@
         <v>0</v>
       </c>
       <c r="C168" s="37" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="59" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B169" s="59"/>
       <c r="C169" s="59"/>
@@ -6530,15 +6537,15 @@
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="9"/>
       <c r="B170" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C170" s="61" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="51" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B174" s="52"/>
       <c r="C174" s="53"/>
@@ -6553,37 +6560,37 @@
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="44"/>
       <c r="B176" s="37" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C176" s="37" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="44"/>
       <c r="B177" s="37" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C177" s="37" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="44"/>
       <c r="B178" s="37" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C178" s="37" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="44"/>
       <c r="B179" s="37" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C179" s="37" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -6612,42 +6619,42 @@
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="45"/>
       <c r="B183" s="37" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C183" s="37" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="45"/>
       <c r="B184" s="37" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C184" s="37" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="45"/>
       <c r="B185" s="37" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C185" s="37" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="45"/>
       <c r="B186" s="37" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C186" s="37" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="59" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B187" s="59"/>
       <c r="C187" s="59"/>
@@ -6655,10 +6662,10 @@
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="9"/>
       <c r="B188" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C188" s="61" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -6723,13 +6730,13 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B5" s="6"/>
     </row>
@@ -6913,13 +6920,13 @@
         <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>49</v>
@@ -6934,22 +6941,22 @@
         <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>29</v>
@@ -6964,7 +6971,7 @@
     <row r="2" spans="1:17" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="66"/>
       <c r="B2" s="66" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="66"/>
@@ -6989,149 +6996,149 @@
         <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M8" s="2" t="b">
         <v>1</v>
@@ -7139,92 +7146,92 @@
     </row>
     <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="68" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="68" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="66"/>
       <c r="B12" s="66" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C12" s="67"/>
       <c r="D12" s="66"/>
@@ -7249,129 +7256,129 @@
         <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="66"/>
       <c r="B18" s="66" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C18" s="67"/>
       <c r="D18" s="66"/>
@@ -7393,112 +7400,112 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="66"/>
       <c r="B23" s="66" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C23" s="67"/>
       <c r="D23" s="66"/>
@@ -7523,375 +7530,375 @@
         <v>24</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B26" s="68" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D26" s="68" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="68" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D27" s="68" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B28" s="68" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D28" s="68" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I33" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B34" s="68" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C34" s="68" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D34" s="68" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="68" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C37" s="68" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D37" s="68" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I37" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="K37" s="2" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="68" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="68" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C38" s="68" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D38" s="68" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>42</v>
@@ -7899,16 +7906,16 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2" t="b">
@@ -7922,13 +7929,13 @@
     <row r="39" spans="1:17" s="68" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="68" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C39" s="68" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D39" s="68" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>42</v>
@@ -7936,19 +7943,19 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -7959,7 +7966,7 @@
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="66"/>
       <c r="B40" s="66" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C40" s="67"/>
       <c r="D40" s="66"/>
@@ -7982,10 +7989,10 @@
     <row r="41" spans="1:17" s="68" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
@@ -7994,16 +8001,16 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2" t="b">
@@ -8017,10 +8024,10 @@
     <row r="42" spans="1:17" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="68" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C42" s="68" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
@@ -8029,19 +8036,19 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -8052,10 +8059,10 @@
     <row r="43" spans="1:17" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="68" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C43" s="68" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
@@ -8064,16 +8071,16 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -8085,7 +8092,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="66"/>
       <c r="B44" s="66" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C44" s="67"/>
       <c r="D44" s="66"/>
@@ -8110,71 +8117,71 @@
         <v>24</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B47" s="68" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C47" s="68" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D47" s="68" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="M47" s="2" t="b">
         <v>1</v>
@@ -8182,141 +8189,141 @@
     </row>
     <row r="48" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B48" s="68" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C48" s="68" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D48" s="68" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B49" s="68" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C49" s="68" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D49" s="68" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="66"/>
       <c r="B53" s="66" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C53" s="67"/>
       <c r="D53" s="66"/>
@@ -8338,28 +8345,28 @@
     </row>
     <row r="54" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -8392,9 +8399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8416,13 +8423,13 @@
         <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>68</v>
@@ -8437,305 +8444,307 @@
         <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>535</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3" s="68" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="68" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>151</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>512</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="68" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>148</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="68" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>148</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" s="68" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C14" s="68"/>
       <c r="D14" s="68" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>148</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1"/>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Type Style" prompt="Most common NIEM type styles:_x000a_- Object:  Contains attributes and elements, like nc:PersonType._x000a_- CSC:  Contains attributes and a value, like ncic:VMACodeType._x000a_- Simple:  Contains a value only, like ncic:VMACodeSimpleType." sqref="K1"/>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Type Style" prompt="Most common NIEM type styles:_x000a_- Object:  Contains attributes and elements, like nc:PersonType._x000a_- CSC:  Contains attributes and a value, like ncic:VMACodeType._x000a_- Simple:  Contains a value only, like ncic:VMACodeSimpleType." sqref="K2:K1048576">
-      <formula1>"Object,Adapter,Association,Augmentation,Metadata,CSC,Simple,Simple-List,Simple-Union"</formula1>
-    </dataValidation>
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>MAPPING_CODES_EXTENDED</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Type Style" prompt="Most common NIEM type styles:_x000a_- Object:  Contains attributes and elements, like nc:PersonType._x000a_- CSC:  Contains attributes and a value, like ncic:VMACodeType._x000a_- Simple:  Contains a value only, like ncic:VMACodeSimpleType." sqref="K1:K1048576">
+      <formula1>CONTENT_STYLES</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="K1" listDataValidation="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -8779,19 +8788,19 @@
         <v>62</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>537</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>545</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>49</v>
@@ -8806,22 +8815,22 @@
         <v>64</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>546</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="64"/>
       <c r="B2" s="66" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
@@ -8840,330 +8849,330 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="64"/>
       <c r="B17" s="66" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
@@ -9182,312 +9191,312 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="68" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C19" s="68"/>
       <c r="D19" s="68" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" s="68" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C20" s="68"/>
       <c r="D20" s="68" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B26" s="68" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C26" s="68"/>
       <c r="D26" s="68" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B29" s="68" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C29" s="68"/>
       <c r="D29" s="68" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" s="68" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C30" s="68"/>
       <c r="D30" s="68" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="64"/>
       <c r="B31" s="66" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
@@ -9506,55 +9515,55 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B33" s="68" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C33" s="68"/>
       <c r="D33" s="68" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="64"/>
       <c r="B34" s="66" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C34" s="64"/>
       <c r="D34" s="64"/>
@@ -9573,194 +9582,194 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B38" s="68" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C38" s="68"/>
       <c r="D38" s="68" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B39" s="68" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C39" s="68"/>
       <c r="D39" s="68" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="64"/>
       <c r="B43" s="66" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C43" s="64"/>
       <c r="D43" s="64"/>
@@ -9779,94 +9788,94 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -9921,13 +9930,13 @@
   <sheetData>
     <row r="1" spans="1:14" s="70" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>68</v>
@@ -9939,28 +9948,28 @@
         <v>23</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="N1" s="65" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -9968,25 +9977,25 @@
         <v>24</v>
       </c>
       <c r="G2" s="71" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H2" s="71" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="I2" s="71" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="N2" s="72" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -10036,13 +10045,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>49</v>
@@ -10057,13 +10066,13 @@
         <v>48</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -10076,13 +10085,13 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="J2" s="2"/>
     </row>
@@ -10124,16 +10133,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>49</v>
@@ -10145,16 +10154,16 @@
         <v>23</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
